--- a/results_adverse-events.v2.0.xlsx
+++ b/results_adverse-events.v2.0.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jottacloud\PDtremor_syst-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6408E9A-75D3-4729-BEE0-5CB587B6E315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE439B38-A295-4266-8759-FA6EA284A191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="133">
   <si>
     <t>slab</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>pval</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -762,20 +765,21 @@
     <col min="2" max="2" width="17.15625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.41796875" customWidth="1"/>
-    <col min="8" max="9" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.3671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.26171875" customWidth="1"/>
+    <col min="7" max="8" width="4.41796875" customWidth="1"/>
+    <col min="9" max="10" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.3671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,52 +796,55 @@
         <v>122</v>
       </c>
       <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>130</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -853,50 +860,53 @@
       <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2">
         <v>65.5</v>
       </c>
-      <c r="K2" t="s">
-        <v>131</v>
-      </c>
       <c r="L2" t="s">
         <v>131</v>
       </c>
       <c r="M2" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="1">
         <v>0.625</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>13</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>54</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -912,50 +922,53 @@
       <c r="E3" t="s">
         <v>131</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3">
         <v>66.3</v>
       </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
       <c r="L3" t="s">
         <v>131</v>
       </c>
       <c r="M3" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="1">
         <v>0.5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>13</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>72</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -971,50 +984,53 @@
       <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4">
         <v>65.5</v>
       </c>
-      <c r="K4" t="s">
-        <v>131</v>
-      </c>
       <c r="L4" t="s">
         <v>131</v>
       </c>
       <c r="M4" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="1">
         <v>0.59090909090909105</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>23</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>13</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>57</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1030,50 +1046,53 @@
       <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5">
         <v>71.48</v>
       </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
       <c r="L5" t="s">
         <v>131</v>
       </c>
       <c r="M5" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="1">
         <v>0.5</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>48</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>14</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>13</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>79</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1089,50 +1108,53 @@
       <c r="E6" t="s">
         <v>131</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>131</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6">
         <v>63</v>
       </c>
-      <c r="K6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6">
+      <c r="L6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6">
         <v>37</v>
       </c>
-      <c r="M6" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>12</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>78</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1154,44 +1176,47 @@
       <c r="G7" t="s">
         <v>131</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7">
         <v>65.5</v>
       </c>
-      <c r="K7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7">
         <v>43.72</v>
       </c>
-      <c r="M7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="N7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="1">
         <v>0.8</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>48</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>22</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>12</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>77</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1202,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>131</v>
@@ -1213,44 +1238,47 @@
       <c r="G8" t="s">
         <v>131</v>
       </c>
-      <c r="H8">
-        <v>10</v>
+      <c r="H8" t="s">
+        <v>131</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
-        <v>131</v>
-      </c>
       <c r="L8" t="s">
         <v>131</v>
       </c>
       <c r="M8" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="1">
         <v>0.57142857142857095</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>22</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1266,50 +1294,53 @@
       <c r="E9" t="s">
         <v>131</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9">
         <v>70.599999999999994</v>
       </c>
-      <c r="K9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9">
         <v>10.9</v>
       </c>
-      <c r="M9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="N9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="1">
         <v>0.75</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>10</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>29</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>11</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>47</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1322,44 +1353,47 @@
       <c r="E10" t="s">
         <v>131</v>
       </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10">
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10">
         <v>13</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>63.4</v>
       </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
       <c r="L10" t="s">
         <v>131</v>
       </c>
-      <c r="M10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="M10">
+        <v>28.8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>11</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>29</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>11</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>51</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1375,50 +1409,53 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>40</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>44</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>62</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>66</v>
       </c>
-      <c r="L11" t="s">
-        <v>131</v>
-      </c>
       <c r="M11" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="1">
         <v>0.60714285714285698</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>40</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>13</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1428,26 +1465,29 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="1">
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="1">
         <v>0.91666666666666696</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>32</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>30</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1463,50 +1503,53 @@
       <c r="E13" t="s">
         <v>131</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13">
         <v>71</v>
       </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
       <c r="L13" t="s">
         <v>131</v>
       </c>
       <c r="M13" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="1">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>27</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>32</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>10</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>32</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1522,51 +1565,54 @@
       <c r="E14" t="s">
         <v>131</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14">
         <v>65.900000000000006</v>
       </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14">
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14">
         <v>40</v>
       </c>
-      <c r="M14" t="s">
-        <v>131</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="1">
         <f>12/28</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>9</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>32</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>10</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>71</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1582,50 +1628,53 @@
       <c r="E15" t="s">
         <v>131</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15">
         <v>22</v>
       </c>
-      <c r="I15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15">
         <v>65</v>
       </c>
-      <c r="K15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15">
         <v>33.1</v>
       </c>
-      <c r="M15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" s="1">
         <v>0.95</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>22</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>37</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>50</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1641,50 +1690,53 @@
       <c r="E16">
         <v>21</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>119</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>125</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>61.64</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>61.56</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>37.56</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>37.81</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>0.71428571428571397</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>108</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>40</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>8</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>7</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1702,50 +1754,53 @@
         <f>57+21+29+19</f>
         <v>126</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17">
         <v>12</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4</v>
-      </c>
-      <c r="H17">
-        <v>380</v>
       </c>
       <c r="I17">
         <v>380</v>
       </c>
       <c r="J17">
+        <v>380</v>
+      </c>
+      <c r="K17">
         <v>63.5</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>64.7</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>31.5</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>31.6</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>380</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>40</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>8</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1756,55 +1811,58 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>122</v>
-      </c>
-      <c r="F18">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>126</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>117</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>67.400000000000006</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>65.400000000000006</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>27.2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>26.8</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>0.92857142857142905</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>110</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>40</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>8</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>18</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1828,44 +1886,47 @@
       <c r="G19" t="s">
         <v>131</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19">
         <v>288</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>595</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>62.4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>62.15</v>
       </c>
-      <c r="L19" t="s">
-        <v>131</v>
-      </c>
       <c r="M19" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="1">
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>221</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>40</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>8</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>19</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1887,44 +1948,47 @@
       <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20">
         <v>231</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>229</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>60.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>61.6</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>24.5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>24.7</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>286</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>40</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>8</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>20</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1946,15 +2010,15 @@
       <c r="G21" t="s">
         <v>131</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21">
         <v>149</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>159</v>
       </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
       <c r="K21" t="s">
         <v>131</v>
       </c>
@@ -1964,26 +2028,29 @@
       <c r="M21" t="s">
         <v>131</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="1">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>138</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>40</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>8</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>21</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1999,47 +2066,50 @@
       <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="G22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22">
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22">
         <v>545</v>
       </c>
-      <c r="I22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22">
         <v>68.400000000000006</v>
       </c>
-      <c r="K22" t="s">
-        <v>131</v>
-      </c>
       <c r="L22" t="s">
         <v>131</v>
       </c>
       <c r="M22" t="s">
         <v>131</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>545</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>40</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>8</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>62</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2057,52 +2127,55 @@
         <f>152+190</f>
         <v>342</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>15</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f>224+274</f>
         <v>498</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>222+275</f>
         <v>497</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>62.3</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>62.1</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>24.5</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>25.1</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>482</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>40</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>15</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2113,55 +2186,58 @@
         <v>27</v>
       </c>
       <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="I24">
         <v>71</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>72</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>63.8</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>65</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>28.7</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>27.7</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>0.5</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>71</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>40</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>6</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2177,50 +2253,53 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
       </c>
       <c r="I25">
         <v>16</v>
       </c>
       <c r="J25">
-        <v>64.3</v>
+        <v>16</v>
       </c>
       <c r="K25">
         <v>64.3</v>
       </c>
-      <c r="L25" t="s">
-        <v>131</v>
+      <c r="L25">
+        <v>64.3</v>
       </c>
       <c r="M25" t="s">
         <v>131</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" s="1">
         <v>0.8</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>15</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>40</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>8</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>12</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2236,50 +2315,53 @@
       <c r="E26">
         <v>90</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>139</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>140</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>63.86</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>64.16</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>26.45</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>26.82</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>0.89285714285714302</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>139</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>40</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>8</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>22</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2295,50 +2377,53 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>131</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>43</v>
       </c>
-      <c r="I27" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27">
         <v>58</v>
       </c>
-      <c r="K27" t="s">
-        <v>131</v>
-      </c>
       <c r="L27" t="s">
         <v>131</v>
       </c>
       <c r="M27" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="1">
         <v>0.68181818181818199</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>43</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>40</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>8</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>36</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2354,50 +2439,53 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>131</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>17</v>
       </c>
       <c r="J28">
-        <v>66.8</v>
+        <v>17</v>
       </c>
       <c r="K28">
         <v>66.8</v>
       </c>
-      <c r="L28" t="s">
-        <v>131</v>
+      <c r="L28">
+        <v>66.8</v>
       </c>
       <c r="M28" t="s">
         <v>131</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+      <c r="O28" s="1">
         <v>0.57692307692307698</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>15</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>55</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>7</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2413,50 +2501,53 @@
       <c r="E29" t="s">
         <v>131</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="F29" t="s">
+        <v>131</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>30</v>
       </c>
       <c r="J29">
+        <v>30</v>
+      </c>
+      <c r="K29">
         <v>70.8</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>71.900000000000006</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>32.799999999999997</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>37.1</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>27</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>55</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>7</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>17</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2478,44 +2569,47 @@
       <c r="G30" t="s">
         <v>131</v>
       </c>
-      <c r="H30">
-        <v>22</v>
+      <c r="H30" t="s">
+        <v>131</v>
       </c>
       <c r="I30">
         <v>22</v>
       </c>
       <c r="J30">
-        <v>67.599999999999994</v>
+        <v>22</v>
       </c>
       <c r="K30">
         <v>67.599999999999994</v>
       </c>
-      <c r="L30" t="s">
-        <v>131</v>
+      <c r="L30">
+        <v>67.599999999999994</v>
       </c>
       <c r="M30" t="s">
         <v>131</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="1">
         <v>0.32142857142857101</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>19</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>55</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>7</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>44</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2531,50 +2625,53 @@
       <c r="E31" t="s">
         <v>131</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31">
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31">
         <v>22</v>
       </c>
-      <c r="I31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31">
         <v>63.52</v>
       </c>
-      <c r="K31" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31">
+      <c r="L31" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31">
         <v>45</v>
       </c>
-      <c r="M31" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="N31" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" s="1">
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>23</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>55</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>7</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>48</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2590,50 +2687,53 @@
       <c r="E32" t="s">
         <v>131</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32">
         <v>12</v>
       </c>
-      <c r="I32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32">
+      <c r="J32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32">
         <v>66.900000000000006</v>
       </c>
-      <c r="K32" t="s">
-        <v>131</v>
-      </c>
       <c r="L32" t="s">
         <v>131</v>
       </c>
       <c r="M32" t="s">
         <v>131</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O32" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>12</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>55</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>7</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>61</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2641,7 +2741,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2649,50 +2749,53 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="F33" t="s">
+        <v>131</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>16</v>
       </c>
       <c r="J33">
-        <v>66.099999999999994</v>
+        <v>16</v>
       </c>
       <c r="K33">
         <v>66.099999999999994</v>
       </c>
       <c r="L33">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M33">
         <v>22.8</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>22.6</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>0.53571428571428603</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>16</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>62</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>6</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>5</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2708,50 +2811,53 @@
       <c r="E34" t="s">
         <v>131</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="G34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34">
         <v>13</v>
       </c>
-      <c r="I34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34">
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
         <v>68.7</v>
       </c>
-      <c r="K34" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34">
+      <c r="L34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34">
         <v>23.7</v>
       </c>
-      <c r="M34" t="s">
-        <v>131</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="N34" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" s="1">
         <v>0.54545454545454497</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>10</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>62</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>6</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>40</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2767,50 +2873,53 @@
       <c r="E35" t="s">
         <v>131</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35">
         <v>18</v>
       </c>
-      <c r="I35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35">
+      <c r="J35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35">
         <v>64</v>
       </c>
-      <c r="K35" t="s">
-        <v>131</v>
-      </c>
-      <c r="L35">
+      <c r="L35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35">
         <v>31.5</v>
       </c>
-      <c r="M35" t="s">
-        <v>131</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="1">
         <v>0.8</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>18</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>62</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>6</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>46</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2826,50 +2935,53 @@
       <c r="E36" t="s">
         <v>131</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36">
         <v>15</v>
       </c>
-      <c r="G36" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36">
         <v>15</v>
       </c>
-      <c r="I36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36">
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36">
         <v>65.599999999999994</v>
       </c>
-      <c r="K36" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36">
+      <c r="L36" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36">
         <v>24.3</v>
       </c>
-      <c r="M36" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="1">
         <v>0.53571428571428603</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>15</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>62</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>6</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>76</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2885,50 +2997,53 @@
       <c r="E37" t="s">
         <v>131</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37">
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37">
         <v>10</v>
       </c>
-      <c r="I37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J37">
+      <c r="J37" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37">
         <v>66.599999999999994</v>
       </c>
-      <c r="K37" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37">
+      <c r="L37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37">
         <v>29.3</v>
       </c>
-      <c r="M37" t="s">
-        <v>131</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="N37" t="s">
+        <v>131</v>
+      </c>
+      <c r="O37" s="1">
         <v>0.95</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>10</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>62</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>6</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>35</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2944,50 +3059,53 @@
       <c r="E38" t="s">
         <v>131</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38">
+      <c r="H38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38">
         <v>106</v>
       </c>
-      <c r="I38" t="s">
-        <v>131</v>
-      </c>
-      <c r="J38">
+      <c r="J38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38">
         <v>65</v>
       </c>
-      <c r="K38" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38">
+      <c r="L38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38">
         <v>38.299999999999997</v>
       </c>
-      <c r="M38" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38" s="1">
         <v>0.45454545454545497</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>100</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>62</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>6</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>45</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3003,50 +3121,53 @@
       <c r="E39">
         <v>5</v>
       </c>
-      <c r="F39">
-        <v>0</v>
+      <c r="F39" t="s">
+        <v>131</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
         <v>71</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>70</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>30</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>32</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>0.46153846153846201</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>10</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>62</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>6</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>10</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3062,50 +3183,53 @@
       <c r="E40">
         <v>7</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="s">
+        <v>131</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
       <c r="J40">
-        <v>66.5</v>
+        <v>10</v>
       </c>
       <c r="K40">
         <v>66.5</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>66.5</v>
       </c>
       <c r="M40">
         <v>23</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
+        <v>23</v>
+      </c>
+      <c r="O40" s="1">
         <v>0.96428571428571397</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>10</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>62</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>6</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>10</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3121,47 +3245,50 @@
       <c r="E41" t="s">
         <v>131</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41">
         <v>3</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>32</v>
       </c>
-      <c r="I41" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41">
+      <c r="J41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41">
         <v>60.1</v>
       </c>
-      <c r="K41" t="s">
-        <v>131</v>
-      </c>
-      <c r="L41">
+      <c r="L41" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41">
         <v>25.8</v>
       </c>
-      <c r="M41" t="s">
-        <v>131</v>
-      </c>
-      <c r="N41" s="1">
+      <c r="N41" t="s">
+        <v>131</v>
+      </c>
+      <c r="O41" s="1">
         <v>0.8</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>32</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>62</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>6</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>34</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3177,18 +3304,18 @@
       <c r="E42" t="s">
         <v>131</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="G42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42">
+      <c r="H42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42">
         <v>86</v>
       </c>
-      <c r="I42" t="s">
-        <v>131</v>
-      </c>
       <c r="J42" t="s">
         <v>131</v>
       </c>
@@ -3201,26 +3328,29 @@
       <c r="M42" t="s">
         <v>131</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" t="s">
+        <v>131</v>
+      </c>
+      <c r="O42" s="1">
         <v>0.45</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>82</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>62</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>6</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>52</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3230,56 +3360,59 @@
       <c r="C43" t="s">
         <v>27</v>
       </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
+      <c r="I43">
         <v>10</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>68.599999999999994</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>70.099999999999994</v>
-      </c>
-      <c r="L43">
-        <v>24.2</v>
       </c>
       <c r="M43">
         <v>24.2</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
+        <v>24.2</v>
+      </c>
+      <c r="O43" s="1">
         <v>0.82142857142857095</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>9</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>62</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>6</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>4</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -3295,50 +3428,53 @@
       <c r="E44">
         <v>30</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44">
         <v>9</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>6</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>61</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>54</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>63.4</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>64.8</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>28</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>29.1</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>0.71428571428571397</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>108</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>62</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>6</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>29</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -3354,50 +3490,53 @@
       <c r="E45" t="s">
         <v>131</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="G45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45">
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45">
         <v>43</v>
       </c>
-      <c r="I45" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45">
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45">
         <v>63</v>
       </c>
-      <c r="K45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45">
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45">
         <v>28.29</v>
       </c>
-      <c r="M45" t="s">
-        <v>131</v>
-      </c>
-      <c r="N45" s="1">
+      <c r="N45" t="s">
+        <v>131</v>
+      </c>
+      <c r="O45" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>36</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>62</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>6</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>42</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3413,50 +3552,53 @@
       <c r="E46" t="s">
         <v>131</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46">
         <v>0</v>
       </c>
-      <c r="G46" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46">
         <v>35</v>
       </c>
-      <c r="I46" t="s">
-        <v>131</v>
-      </c>
-      <c r="J46">
+      <c r="J46" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46">
         <v>61.4</v>
       </c>
-      <c r="K46" t="s">
-        <v>131</v>
-      </c>
       <c r="L46" t="s">
         <v>131</v>
       </c>
       <c r="M46" t="s">
         <v>131</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" t="s">
+        <v>131</v>
+      </c>
+      <c r="O46" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>30</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>62</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>6</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>65</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -3472,50 +3614,53 @@
       <c r="E47" t="s">
         <v>131</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47">
         <v>10</v>
       </c>
-      <c r="G47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47">
         <v>90</v>
       </c>
-      <c r="I47" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47">
+      <c r="J47" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47">
         <v>63</v>
       </c>
-      <c r="K47" t="s">
-        <v>131</v>
-      </c>
       <c r="L47" t="s">
         <v>131</v>
       </c>
       <c r="M47" t="s">
         <v>131</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47" s="1">
         <v>0.88888888888888895</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>90</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>62</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>6</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>70</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -3531,50 +3676,53 @@
       <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48">
+      <c r="H48" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48">
         <v>113</v>
       </c>
-      <c r="I48" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48">
+      <c r="J48" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48">
         <v>63.1</v>
       </c>
-      <c r="K48" t="s">
-        <v>131</v>
-      </c>
       <c r="L48" t="s">
         <v>131</v>
       </c>
       <c r="M48" t="s">
         <v>131</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" t="s">
+        <v>131</v>
+      </c>
+      <c r="O48" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>90</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>62</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>6</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>75</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3584,56 +3732,59 @@
       <c r="C49" t="s">
         <v>27</v>
       </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49">
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49">
         <v>13</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>14</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>180</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>183</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>63.4</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>64.7</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>27.5</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>29.8</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>0.96153846153846201</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>174</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>62</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>6</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>3</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3649,50 +3800,53 @@
       <c r="E50">
         <v>7</v>
       </c>
-      <c r="F50">
-        <v>0</v>
+      <c r="F50" t="s">
+        <v>131</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
         <v>66</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>70</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>35</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>32</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>0.46153846153846201</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>10</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>62</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>6</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>11</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3703,55 +3857,58 @@
         <v>27</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51">
-        <v>0</v>
+      <c r="F51" t="s">
+        <v>131</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>66.5</v>
+        <v>10</v>
       </c>
       <c r="K51">
         <v>66.5</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>66.5</v>
       </c>
       <c r="M51">
         <v>23</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
+        <v>23</v>
+      </c>
+      <c r="O51" s="1">
         <v>0.96428571428571397</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>10</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>62</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>6</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>11</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -3767,50 +3924,53 @@
       <c r="E52">
         <v>31</v>
       </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="F52" t="s">
+        <v>131</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>44</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>40</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>62</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>65.400000000000006</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>34.200000000000003</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>32.1</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>0.96428571428571397</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>44</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>62</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>6</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>25</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -3826,50 +3986,53 @@
       <c r="E53" t="s">
         <v>131</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53">
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53">
         <v>98</v>
       </c>
-      <c r="I53" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53">
+      <c r="J53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53">
         <v>63.2</v>
       </c>
-      <c r="K53" t="s">
-        <v>131</v>
-      </c>
       <c r="L53" t="s">
         <v>131</v>
       </c>
       <c r="M53" t="s">
         <v>131</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" t="s">
+        <v>131</v>
+      </c>
+      <c r="O53" s="1">
         <v>0.63636363636363602</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>98</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>62</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>6</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>49</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -3885,50 +4048,53 @@
       <c r="E54" t="s">
         <v>131</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54">
         <v>5</v>
       </c>
-      <c r="G54" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54">
+      <c r="H54" t="s">
+        <v>131</v>
+      </c>
+      <c r="I54">
         <v>47</v>
       </c>
-      <c r="I54" t="s">
-        <v>131</v>
-      </c>
-      <c r="J54">
+      <c r="J54" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54">
         <v>66.099999999999994</v>
       </c>
-      <c r="K54" t="s">
-        <v>131</v>
-      </c>
-      <c r="L54">
+      <c r="L54" t="s">
+        <v>131</v>
+      </c>
+      <c r="M54">
         <v>43</v>
       </c>
-      <c r="M54" t="s">
-        <v>131</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="N54" t="s">
+        <v>131</v>
+      </c>
+      <c r="O54" s="1">
         <v>0.42857142857142899</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>42</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>62</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>6</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>58</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3944,50 +4110,53 @@
       <c r="E55" t="s">
         <v>131</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55">
         <v>30</v>
       </c>
-      <c r="G55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55">
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55">
         <v>657</v>
       </c>
-      <c r="I55" t="s">
-        <v>131</v>
-      </c>
-      <c r="J55">
+      <c r="J55" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55">
         <v>68</v>
       </c>
-      <c r="K55" t="s">
-        <v>131</v>
-      </c>
       <c r="L55" t="s">
         <v>131</v>
       </c>
       <c r="M55" t="s">
         <v>131</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" t="s">
+        <v>131</v>
+      </c>
+      <c r="O55" s="1">
         <v>0.5</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>627</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>62</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>6</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>68</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -4005,50 +4174,53 @@
         <f>22*0.684</f>
         <v>15.048000000000002</v>
       </c>
-      <c r="F56">
-        <v>3</v>
+      <c r="F56" t="s">
+        <v>131</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
       <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
         <v>41</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>22</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>59</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>57</v>
       </c>
-      <c r="L56" t="s">
-        <v>131</v>
-      </c>
       <c r="M56" t="s">
         <v>131</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" t="s">
+        <v>131</v>
+      </c>
+      <c r="O56" s="1">
         <v>0.64285714285714302</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>34</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>62</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>6</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>14</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -4064,50 +4236,53 @@
       <c r="E57">
         <v>113</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57">
         <v>27</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>13</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>116</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>125</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>62</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>64</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>17.899999999999999</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>17.7</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>0.94444444444444398</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>109</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>62</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>6</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>26</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -4123,50 +4298,53 @@
       <c r="E58" t="s">
         <v>131</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58">
         <v>66</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>55</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>168</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>167</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>63</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>62.7</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>23.3</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>23.1</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <v>0.94444444444444398</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>161</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>62</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>6</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>27</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -4182,50 +4360,53 @@
       <c r="E59">
         <v>89</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59">
         <v>48</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>29</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>179</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>89</v>
-      </c>
-      <c r="J59">
-        <v>63</v>
       </c>
       <c r="K59">
         <v>63</v>
       </c>
       <c r="L59">
+        <v>63</v>
+      </c>
+      <c r="M59">
         <v>21.5</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>21.7</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>0.94444444444444398</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>162</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>62</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>6</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>28</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -4249,46 +4430,49 @@
       <c r="G60" t="s">
         <v>131</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60">
         <f>69+103</f>
         <v>172</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <f>31+59</f>
         <v>90</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>65.87</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>66.5</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>20.3</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>21.03</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O60" s="1">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>87</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>62</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>6</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>23</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -4312,45 +4496,48 @@
       <c r="G61" t="s">
         <v>131</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61">
         <f>87+168</f>
         <v>255</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>90</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>65.53</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>66.12</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>26.61</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>25.94</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>250</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>62</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>6</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>24</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -4366,50 +4553,53 @@
       <c r="E62" t="s">
         <v>131</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62">
         <v>23</v>
       </c>
-      <c r="G62" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62">
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62">
         <v>657</v>
       </c>
-      <c r="I62" t="s">
-        <v>131</v>
-      </c>
-      <c r="J62">
+      <c r="J62" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62">
         <v>67.7</v>
       </c>
-      <c r="K62" t="s">
-        <v>131</v>
-      </c>
       <c r="L62" t="s">
         <v>131</v>
       </c>
       <c r="M62" t="s">
         <v>131</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" t="s">
+        <v>131</v>
+      </c>
+      <c r="O62" s="1">
         <v>0.77272727272727304</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>643</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>62</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>6</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>69</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -4425,50 +4615,53 @@
       <c r="E63" t="s">
         <v>131</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63">
         <v>1</v>
       </c>
-      <c r="G63" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63">
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63">
         <v>26</v>
       </c>
-      <c r="I63" t="s">
-        <v>131</v>
-      </c>
-      <c r="J63">
+      <c r="J63" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63">
         <v>71</v>
       </c>
-      <c r="K63" t="s">
-        <v>131</v>
-      </c>
       <c r="L63" t="s">
         <v>131</v>
       </c>
       <c r="M63" t="s">
         <v>131</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O63" s="1">
         <v>0.90909090909090895</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>26</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>98</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>5</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>31</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -4484,50 +4677,53 @@
       <c r="E64" t="s">
         <v>131</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64">
         <v>0</v>
       </c>
-      <c r="G64" t="s">
-        <v>131</v>
-      </c>
-      <c r="H64">
+      <c r="H64" t="s">
+        <v>131</v>
+      </c>
+      <c r="I64">
         <v>338</v>
       </c>
-      <c r="I64" t="s">
-        <v>131</v>
-      </c>
-      <c r="J64">
+      <c r="J64" t="s">
+        <v>131</v>
+      </c>
+      <c r="K64">
         <v>69.650000000000006</v>
       </c>
-      <c r="K64" t="s">
-        <v>131</v>
-      </c>
       <c r="L64" t="s">
         <v>131</v>
       </c>
       <c r="M64" t="s">
         <v>131</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64" t="s">
+        <v>131</v>
+      </c>
+      <c r="O64" s="1">
         <v>0.39285714285714302</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>31</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>98</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>5</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>53</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -4543,50 +4739,53 @@
       <c r="E65">
         <v>17</v>
       </c>
-      <c r="F65">
-        <v>2</v>
+      <c r="F65" t="s">
+        <v>131</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
       <c r="H65">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>22</v>
       </c>
       <c r="J65">
-        <v>67.599999999999994</v>
+        <v>22</v>
       </c>
       <c r="K65">
         <v>67.599999999999994</v>
       </c>
-      <c r="L65" s="1">
-        <v>24.9</v>
+      <c r="L65">
+        <v>67.599999999999994</v>
       </c>
       <c r="M65" s="1">
         <v>24.9</v>
       </c>
       <c r="N65" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="O65" s="1">
         <v>0.32142857142857101</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>38</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>101</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>4</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>44</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -4602,50 +4801,53 @@
       <c r="E66" t="s">
         <v>131</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66">
         <v>0</v>
       </c>
-      <c r="G66" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66">
+      <c r="H66" t="s">
+        <v>131</v>
+      </c>
+      <c r="I66">
         <v>20</v>
       </c>
-      <c r="I66" t="s">
-        <v>131</v>
-      </c>
-      <c r="J66">
+      <c r="J66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K66">
         <v>57.9</v>
       </c>
-      <c r="K66" t="s">
-        <v>131</v>
-      </c>
-      <c r="L66">
+      <c r="L66" t="s">
+        <v>131</v>
+      </c>
+      <c r="M66">
         <v>28.5</v>
       </c>
-      <c r="M66" t="s">
-        <v>131</v>
-      </c>
-      <c r="N66" s="1">
+      <c r="N66" t="s">
+        <v>131</v>
+      </c>
+      <c r="O66" s="1">
         <v>0.39285714285714302</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>20</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>101</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>4</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>55</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -4661,50 +4863,53 @@
       <c r="E67" t="s">
         <v>131</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67">
         <v>0</v>
       </c>
-      <c r="G67" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67">
         <v>10</v>
       </c>
-      <c r="I67" t="s">
-        <v>131</v>
-      </c>
-      <c r="J67">
+      <c r="J67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67">
         <v>62.2</v>
       </c>
-      <c r="K67" t="s">
-        <v>131</v>
-      </c>
       <c r="L67" t="s">
         <v>131</v>
       </c>
       <c r="M67" t="s">
         <v>131</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" t="s">
+        <v>131</v>
+      </c>
+      <c r="O67" s="1">
         <v>0.46153846153846201</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>10</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>105</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>3</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>63</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -4726,44 +4931,47 @@
       <c r="G68" t="s">
         <v>131</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I68">
         <v>20</v>
       </c>
-      <c r="I68" t="s">
-        <v>131</v>
-      </c>
-      <c r="J68">
+      <c r="J68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68">
         <v>62</v>
       </c>
-      <c r="K68" t="s">
-        <v>131</v>
-      </c>
       <c r="L68" t="s">
         <v>131</v>
       </c>
       <c r="M68" t="s">
         <v>131</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68" t="s">
+        <v>131</v>
+      </c>
+      <c r="O68" s="1">
         <v>0.65</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>20</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>108</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>2</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>73</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -4779,50 +4987,53 @@
       <c r="E69" t="s">
         <v>131</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69">
         <v>0</v>
       </c>
-      <c r="G69" t="s">
-        <v>131</v>
-      </c>
-      <c r="H69">
+      <c r="H69" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69">
         <v>10</v>
       </c>
-      <c r="I69" t="s">
-        <v>131</v>
-      </c>
-      <c r="J69">
+      <c r="J69" t="s">
+        <v>131</v>
+      </c>
+      <c r="K69">
         <v>62.2</v>
       </c>
-      <c r="K69" t="s">
-        <v>131</v>
-      </c>
       <c r="L69" t="s">
         <v>131</v>
       </c>
       <c r="M69" t="s">
         <v>131</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" t="s">
+        <v>131</v>
+      </c>
+      <c r="O69" s="1">
         <v>0.46153846153846201</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>10</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>108</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>2</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>63</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -4838,50 +5049,53 @@
       <c r="E70" t="s">
         <v>131</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70">
         <v>0</v>
       </c>
-      <c r="G70" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70">
+      <c r="H70" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70">
         <v>14</v>
       </c>
-      <c r="I70" t="s">
-        <v>131</v>
-      </c>
-      <c r="J70">
+      <c r="J70" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70">
         <v>65.099999999999994</v>
       </c>
-      <c r="K70" t="s">
-        <v>131</v>
-      </c>
-      <c r="L70">
+      <c r="L70" t="s">
+        <v>131</v>
+      </c>
+      <c r="M70">
         <v>52.3</v>
       </c>
-      <c r="M70" t="s">
-        <v>131</v>
-      </c>
-      <c r="N70" s="1">
+      <c r="N70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O70" s="1">
         <v>0.85</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>14</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>108</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>2</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>38</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -4903,44 +5117,47 @@
       <c r="G71" t="s">
         <v>131</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I71">
         <v>45</v>
       </c>
-      <c r="I71" t="s">
-        <v>131</v>
-      </c>
-      <c r="J71">
+      <c r="J71" t="s">
+        <v>131</v>
+      </c>
+      <c r="K71">
         <v>69</v>
       </c>
-      <c r="K71" t="s">
-        <v>131</v>
-      </c>
       <c r="L71" t="s">
         <v>131</v>
       </c>
       <c r="M71" t="s">
         <v>131</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71" t="s">
+        <v>131</v>
+      </c>
+      <c r="O71" s="1">
         <v>0.54545454545454497</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>45</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>114</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>1</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>33</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -4962,44 +5179,47 @@
       <c r="G72" t="s">
         <v>131</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72">
         <v>39</v>
       </c>
-      <c r="I72" t="s">
-        <v>131</v>
-      </c>
-      <c r="J72">
+      <c r="J72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K72">
         <v>61.1</v>
       </c>
-      <c r="K72" t="s">
-        <v>131</v>
-      </c>
       <c r="L72" t="s">
         <v>131</v>
       </c>
       <c r="M72" t="s">
         <v>131</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72" t="s">
+        <v>131</v>
+      </c>
+      <c r="O72" s="1">
         <v>0.68181818181818199</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>39</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>114</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>1</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>36</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -5021,44 +5241,47 @@
       <c r="G73" t="s">
         <v>131</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73">
         <v>34</v>
       </c>
-      <c r="I73" t="s">
-        <v>131</v>
-      </c>
-      <c r="J73">
+      <c r="J73" t="s">
+        <v>131</v>
+      </c>
+      <c r="K73">
         <v>59</v>
       </c>
-      <c r="K73" t="s">
-        <v>131</v>
-      </c>
-      <c r="L73">
+      <c r="L73" t="s">
+        <v>131</v>
+      </c>
+      <c r="M73">
         <v>35.4</v>
       </c>
-      <c r="M73" t="s">
-        <v>131</v>
-      </c>
-      <c r="N73" s="1">
+      <c r="N73" t="s">
+        <v>131</v>
+      </c>
+      <c r="O73" s="1">
         <v>0.77272727272727304</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>34</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>114</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>1</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>39</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -5086,38 +5309,41 @@
       <c r="I74" t="s">
         <v>131</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74">
         <v>63.61</v>
       </c>
-      <c r="K74" t="s">
-        <v>131</v>
-      </c>
-      <c r="L74">
+      <c r="L74" t="s">
+        <v>131</v>
+      </c>
+      <c r="M74">
         <v>27.9</v>
       </c>
-      <c r="M74" t="s">
-        <v>131</v>
-      </c>
-      <c r="N74" s="1">
+      <c r="N74" t="s">
+        <v>131</v>
+      </c>
+      <c r="O74" s="1">
         <v>0.57142857142857095</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>34</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>114</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>1</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>41</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -5133,50 +5359,53 @@
       <c r="E75" t="s">
         <v>131</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75">
         <v>0</v>
       </c>
-      <c r="G75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H75">
+      <c r="H75" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75">
         <v>20</v>
       </c>
-      <c r="I75" t="s">
-        <v>131</v>
-      </c>
-      <c r="J75">
+      <c r="J75" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75">
         <v>57.9</v>
       </c>
-      <c r="K75" t="s">
-        <v>131</v>
-      </c>
-      <c r="L75">
+      <c r="L75" t="s">
+        <v>131</v>
+      </c>
+      <c r="M75">
         <v>28.5</v>
       </c>
-      <c r="M75" t="s">
-        <v>131</v>
-      </c>
-      <c r="N75" s="1">
+      <c r="N75" t="s">
+        <v>131</v>
+      </c>
+      <c r="O75" s="1">
         <v>0.39285714285714302</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>20</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>114</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>1</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>55</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -5204,38 +5433,41 @@
       <c r="I76" t="s">
         <v>131</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="s">
+        <v>131</v>
+      </c>
+      <c r="K76">
         <v>66.63</v>
       </c>
-      <c r="K76" t="s">
-        <v>131</v>
-      </c>
-      <c r="L76">
+      <c r="L76" t="s">
+        <v>131</v>
+      </c>
+      <c r="M76">
         <v>29.19</v>
       </c>
-      <c r="M76" t="s">
-        <v>131</v>
-      </c>
-      <c r="N76" s="1">
+      <c r="N76" t="s">
+        <v>131</v>
+      </c>
+      <c r="O76" s="1">
         <v>0.72727272727272696</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>21</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>114</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>1</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>59</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -5257,44 +5489,47 @@
       <c r="G77" t="s">
         <v>131</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77">
         <v>76</v>
       </c>
-      <c r="I77" t="s">
-        <v>131</v>
-      </c>
-      <c r="J77">
+      <c r="J77" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77">
         <v>62</v>
       </c>
-      <c r="K77" t="s">
-        <v>131</v>
-      </c>
-      <c r="L77">
+      <c r="L77" t="s">
+        <v>131</v>
+      </c>
+      <c r="M77">
         <v>44</v>
       </c>
-      <c r="M77" t="s">
-        <v>131</v>
-      </c>
-      <c r="N77" s="1">
+      <c r="N77" t="s">
+        <v>131</v>
+      </c>
+      <c r="O77" s="1">
         <v>0.71428571428571397</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>76</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>114</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>1</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>41</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -5310,50 +5545,53 @@
       <c r="E78" t="s">
         <v>131</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78">
         <v>0</v>
       </c>
-      <c r="G78" t="s">
-        <v>131</v>
-      </c>
-      <c r="H78">
+      <c r="H78" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78">
         <v>338</v>
       </c>
-      <c r="I78" t="s">
-        <v>131</v>
-      </c>
-      <c r="J78">
+      <c r="J78" t="s">
+        <v>131</v>
+      </c>
+      <c r="K78">
         <v>69.650000000000006</v>
       </c>
-      <c r="K78" t="s">
-        <v>131</v>
-      </c>
       <c r="L78" t="s">
         <v>131</v>
       </c>
       <c r="M78" t="s">
         <v>131</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78" t="s">
+        <v>131</v>
+      </c>
+      <c r="O78" s="1">
         <v>0.29166666666666702</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>338</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>114</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>1</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>66</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -5381,38 +5619,41 @@
       <c r="I79" t="s">
         <v>131</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="s">
+        <v>131</v>
+      </c>
+      <c r="K79">
         <v>60</v>
       </c>
-      <c r="K79" t="s">
-        <v>131</v>
-      </c>
-      <c r="L79">
+      <c r="L79" t="s">
+        <v>131</v>
+      </c>
+      <c r="M79">
         <v>23</v>
       </c>
-      <c r="M79" t="s">
-        <v>131</v>
-      </c>
-      <c r="N79" s="1">
+      <c r="N79" t="s">
+        <v>131</v>
+      </c>
+      <c r="O79" s="1">
         <v>0.59090909090909105</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>10</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>114</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>1</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>67</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -5434,40 +5675,43 @@
       <c r="G80" t="s">
         <v>131</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80">
         <v>71</v>
       </c>
-      <c r="I80" t="s">
-        <v>131</v>
-      </c>
-      <c r="J80">
+      <c r="J80" t="s">
+        <v>131</v>
+      </c>
+      <c r="K80">
         <v>63</v>
       </c>
-      <c r="K80" t="s">
-        <v>131</v>
-      </c>
-      <c r="L80">
+      <c r="L80" t="s">
+        <v>131</v>
+      </c>
+      <c r="M80">
         <v>43.9</v>
       </c>
-      <c r="M80" t="s">
-        <v>131</v>
-      </c>
-      <c r="N80" s="1">
+      <c r="N80" t="s">
+        <v>131</v>
+      </c>
+      <c r="O80" s="1">
         <v>0.57142857142857095</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>69</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>114</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>1</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>74</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>114</v>
       </c>
     </row>

--- a/results_adverse-events.v2.0.xlsx
+++ b/results_adverse-events.v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jottacloud\PDtremor_syst-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE439B38-A295-4266-8759-FA6EA284A191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D125B3B5-CC55-42E9-A750-94A8E8D00169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="133">
   <si>
     <t>slab</t>
   </si>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2495,11 +2495,11 @@
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>131</v>

--- a/results_adverse-events.v2.0.xlsx
+++ b/results_adverse-events.v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jottacloud\PDtremor_syst-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D125B3B5-CC55-42E9-A750-94A8E8D00169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C970B5-F101-4A3A-A9AA-A9EEF7A5E8BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13131" windowHeight="6111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="140">
   <si>
     <t>slab</t>
   </si>
@@ -419,6 +419,27 @@
   </si>
   <si>
     <t>pval</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
+    <t>memantine</t>
+  </si>
+  <si>
+    <t>Rabey et al. 1994</t>
+  </si>
+  <si>
+    <t>gabaergic_medication</t>
+  </si>
+  <si>
+    <t>Koller et al. 1987.2</t>
+  </si>
+  <si>
+    <t>Olson et al. 1997</t>
   </si>
 </sst>
 </file>
@@ -753,33 +774,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25:Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.20703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.26171875" customWidth="1"/>
-    <col min="7" max="8" width="4.41796875" customWidth="1"/>
-    <col min="9" max="10" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.23046875" customWidth="1"/>
+    <col min="7" max="8" width="4.3828125" customWidth="1"/>
+    <col min="9" max="10" width="3.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.69140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.3671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -887,7 +908,7 @@
       <c r="N2" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>0.625</v>
       </c>
       <c r="P2">
@@ -897,16 +918,16 @@
         <v>14</v>
       </c>
       <c r="S2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -949,7 +970,7 @@
       <c r="N3" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>0.5</v>
       </c>
       <c r="P3">
@@ -959,16 +980,16 @@
         <v>14</v>
       </c>
       <c r="S3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +1032,7 @@
       <c r="N4" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>0.59090909090909105</v>
       </c>
       <c r="P4">
@@ -1021,16 +1042,16 @@
         <v>14</v>
       </c>
       <c r="S4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1094,7 @@
       <c r="N5" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>0.5</v>
       </c>
       <c r="P5">
@@ -1083,16 +1104,16 @@
         <v>14</v>
       </c>
       <c r="S5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T5">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1156,7 @@
       <c r="N6" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>0.58333333333333304</v>
       </c>
       <c r="P6">
@@ -1145,16 +1166,16 @@
         <v>22</v>
       </c>
       <c r="S6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1218,7 @@
       <c r="N7" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>0.8</v>
       </c>
       <c r="P7">
@@ -1207,16 +1228,16 @@
         <v>22</v>
       </c>
       <c r="S7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T7">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1280,7 @@
       <c r="N8" t="s">
         <v>131</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>0.57142857142857095</v>
       </c>
       <c r="P8">
@@ -1269,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="S8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T8">
         <v>2</v>
@@ -1278,7 +1299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1321,7 +1342,7 @@
       <c r="N9" t="s">
         <v>131</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>0.75</v>
       </c>
       <c r="P9">
@@ -1331,7 +1352,7 @@
         <v>29</v>
       </c>
       <c r="S9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T9">
         <v>47</v>
@@ -1340,7 +1361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1395,7 @@
       <c r="N10" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
@@ -1384,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="S10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T10">
         <v>51</v>
@@ -1393,7 +1414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>131</v>
@@ -1416,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>40</v>
@@ -1436,7 +1457,7 @@
       <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>0.60714285714285698</v>
       </c>
       <c r="P11">
@@ -1446,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T11">
         <v>13</v>
@@ -1455,7 +1476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1465,10 +1486,40 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
       <c r="F12" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="1">
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12">
         <v>0.91666666666666696</v>
       </c>
       <c r="P12">
@@ -1478,7 +1529,7 @@
         <v>32</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T12">
         <v>30</v>
@@ -1487,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1581,7 @@
       <c r="N13" t="s">
         <v>131</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>0.90909090909090895</v>
       </c>
       <c r="P13">
@@ -1540,7 +1591,7 @@
         <v>32</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T13">
         <v>32</v>
@@ -1549,7 +1600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1592,9 +1643,8 @@
       <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="1">
-        <f>12/28</f>
-        <v>0.42857142857142855</v>
+      <c r="O14">
+        <v>0.42857142857142899</v>
       </c>
       <c r="P14">
         <v>9</v>
@@ -1603,16 +1653,16 @@
         <v>32</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T14">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1655,8 +1705,8 @@
       <c r="N15" t="s">
         <v>131</v>
       </c>
-      <c r="O15" s="1">
-        <v>0.95</v>
+      <c r="O15">
+        <v>0.86363636363636398</v>
       </c>
       <c r="P15">
         <v>22</v>
@@ -1665,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T15">
         <v>50</v>
@@ -1674,427 +1724,430 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
       </c>
       <c r="F16" t="s">
         <v>131</v>
       </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>119</v>
-      </c>
-      <c r="J16">
-        <v>125</v>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
       </c>
       <c r="K16">
-        <v>61.64</v>
-      </c>
-      <c r="L16">
-        <v>61.56</v>
-      </c>
-      <c r="M16">
-        <v>37.56</v>
-      </c>
-      <c r="N16">
-        <v>37.81</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.71428571428571397</v>
+        <v>62.2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16">
+        <v>0.46153850000000002</v>
       </c>
       <c r="P16">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>64</v>
+      </c>
+      <c r="L17">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>36.615384615384571</v>
+      </c>
+      <c r="N17">
+        <v>34.153846153846118</v>
+      </c>
+      <c r="O17">
+        <v>0.57142859999999995</v>
+      </c>
+      <c r="P17">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="L18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18">
+        <v>52.3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18">
+        <v>0.35</v>
+      </c>
+      <c r="P18">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>119</v>
+      </c>
+      <c r="J19">
+        <v>125</v>
+      </c>
+      <c r="K19">
+        <v>61.64</v>
+      </c>
+      <c r="L19">
+        <v>61.56</v>
+      </c>
+      <c r="M19">
+        <v>37.56</v>
+      </c>
+      <c r="N19">
+        <v>37.81</v>
+      </c>
+      <c r="O19">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="P19">
+        <v>108</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
         <f>56+25+33+17</f>
         <v>131</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <f>57+21+29+19</f>
         <v>126</v>
       </c>
-      <c r="F17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17">
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20">
         <v>12</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>380</v>
       </c>
-      <c r="J17">
+      <c r="J20">
         <v>380</v>
       </c>
-      <c r="K17">
+      <c r="K20">
         <v>63.5</v>
       </c>
-      <c r="L17">
+      <c r="L20">
         <v>64.7</v>
       </c>
-      <c r="M17">
+      <c r="M20">
         <v>31.5</v>
       </c>
-      <c r="N17">
+      <c r="N20">
         <v>31.6</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="P20">
         <v>380</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q20" t="s">
         <v>40</v>
       </c>
-      <c r="S17">
+      <c r="S20">
         <v>8</v>
       </c>
-      <c r="T17">
+      <c r="T20">
         <v>16</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>73</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18">
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21">
         <v>8</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>126</v>
       </c>
-      <c r="J18">
+      <c r="J21">
         <v>117</v>
       </c>
-      <c r="K18">
+      <c r="K21">
         <v>67.400000000000006</v>
       </c>
-      <c r="L18">
+      <c r="L21">
         <v>65.400000000000006</v>
       </c>
-      <c r="M18">
+      <c r="M21">
         <v>27.2</v>
       </c>
-      <c r="N18">
+      <c r="N21">
         <v>26.8</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O21">
         <v>0.92857142857142905</v>
       </c>
-      <c r="P18">
+      <c r="P21">
         <v>110</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q21" t="s">
         <v>40</v>
       </c>
-      <c r="S18">
+      <c r="S21">
         <v>8</v>
       </c>
-      <c r="T18">
+      <c r="T21">
         <v>18</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <f>37+40</f>
         <v>77</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <f>22+82</f>
         <v>104</v>
       </c>
-      <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19">
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22">
         <v>288</v>
       </c>
-      <c r="J19">
+      <c r="J22">
         <v>595</v>
       </c>
-      <c r="K19">
+      <c r="K22">
         <v>62.4</v>
       </c>
-      <c r="L19">
+      <c r="L22">
         <v>62.15</v>
       </c>
-      <c r="M19" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" t="s">
-        <v>131</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="M22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22">
         <v>1</v>
       </c>
-      <c r="P19">
+      <c r="P22">
         <v>221</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19">
-        <v>8</v>
-      </c>
-      <c r="T19">
-        <v>19</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>141</v>
-      </c>
-      <c r="E20">
-        <v>130</v>
-      </c>
-      <c r="F20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20">
-        <v>231</v>
-      </c>
-      <c r="J20">
-        <v>229</v>
-      </c>
-      <c r="K20">
-        <v>60.5</v>
-      </c>
-      <c r="L20">
-        <v>61.6</v>
-      </c>
-      <c r="M20">
-        <v>24.5</v>
-      </c>
-      <c r="N20">
-        <v>24.7</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>286</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20">
-        <v>8</v>
-      </c>
-      <c r="T20">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>106</v>
-      </c>
-      <c r="E21">
-        <v>111</v>
-      </c>
-      <c r="F21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21">
-        <v>149</v>
-      </c>
-      <c r="J21">
-        <v>159</v>
-      </c>
-      <c r="K21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" t="s">
-        <v>131</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>138</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21">
-        <v>8</v>
-      </c>
-      <c r="T21">
-        <v>21</v>
-      </c>
-      <c r="U21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22">
-        <v>545</v>
-      </c>
-      <c r="J22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P22">
-        <v>545</v>
       </c>
       <c r="Q22" t="s">
         <v>40</v>
@@ -2103,250 +2156,247 @@
         <v>8</v>
       </c>
       <c r="T22">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23">
+        <v>141</v>
+      </c>
+      <c r="E23">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23">
+        <v>231</v>
+      </c>
+      <c r="J23">
+        <v>229</v>
+      </c>
+      <c r="K23">
+        <v>60.5</v>
+      </c>
+      <c r="L23">
+        <v>61.6</v>
+      </c>
+      <c r="M23">
+        <v>24.5</v>
+      </c>
+      <c r="N23">
+        <v>24.7</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>286</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>106</v>
+      </c>
+      <c r="E24">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24">
+        <v>149</v>
+      </c>
+      <c r="J24">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>138</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>21</v>
+      </c>
+      <c r="U24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25">
+        <v>545</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L25" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P25">
+        <v>545</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>63</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
         <f>147+186</f>
         <v>333</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <f>152+190</f>
         <v>342</v>
       </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23">
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26">
         <v>16</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>15</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <f>224+274</f>
         <v>498</v>
       </c>
-      <c r="J23">
+      <c r="J26">
         <f>222+275</f>
         <v>497</v>
       </c>
-      <c r="K23">
+      <c r="K26">
         <v>62.3</v>
       </c>
-      <c r="L23">
+      <c r="L26">
         <v>62.1</v>
       </c>
-      <c r="M23">
+      <c r="M26">
         <v>24.5</v>
       </c>
-      <c r="N23">
+      <c r="N26">
         <v>25.1</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O26">
         <v>1</v>
       </c>
-      <c r="P23">
+      <c r="P26">
         <v>482</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23">
-        <v>8</v>
-      </c>
-      <c r="T23">
-        <v>15</v>
-      </c>
-      <c r="U23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>71</v>
-      </c>
-      <c r="J24">
-        <v>72</v>
-      </c>
-      <c r="K24">
-        <v>63.8</v>
-      </c>
-      <c r="L24">
-        <v>65</v>
-      </c>
-      <c r="M24">
-        <v>28.7</v>
-      </c>
-      <c r="N24">
-        <v>27.7</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P24">
-        <v>71</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24">
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <v>6</v>
-      </c>
-      <c r="U24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>16</v>
-      </c>
-      <c r="K25">
-        <v>64.3</v>
-      </c>
-      <c r="L25">
-        <v>64.3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>131</v>
-      </c>
-      <c r="N25" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P25">
-        <v>15</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25">
-        <v>8</v>
-      </c>
-      <c r="T25">
-        <v>12</v>
-      </c>
-      <c r="U25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>139</v>
-      </c>
-      <c r="J26">
-        <v>140</v>
-      </c>
-      <c r="K26">
-        <v>63.86</v>
-      </c>
-      <c r="L26">
-        <v>64.16</v>
-      </c>
-      <c r="M26">
-        <v>26.45</v>
-      </c>
-      <c r="N26">
-        <v>26.82</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.89285714285714302</v>
-      </c>
-      <c r="P26">
-        <v>139</v>
       </c>
       <c r="Q26" t="s">
         <v>40</v>
@@ -2355,60 +2405,60 @@
         <v>8</v>
       </c>
       <c r="T26">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27" t="s">
         <v>131</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>43</v>
-      </c>
-      <c r="J27" t="s">
-        <v>131</v>
+        <v>71</v>
+      </c>
+      <c r="J27">
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>58</v>
-      </c>
-      <c r="L27" t="s">
-        <v>131</v>
-      </c>
-      <c r="M27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" t="s">
-        <v>131</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.68181818181818199</v>
+        <v>63.8</v>
+      </c>
+      <c r="L27">
+        <v>65</v>
+      </c>
+      <c r="M27">
+        <v>28.7</v>
+      </c>
+      <c r="N27">
+        <v>27.7</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
       </c>
       <c r="P27">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="Q27" t="s">
         <v>40</v>
@@ -2417,27 +2467,27 @@
         <v>8</v>
       </c>
       <c r="T27">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="U27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
@@ -2446,19 +2496,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28">
-        <v>66.8</v>
+        <v>64.3</v>
       </c>
       <c r="L28">
-        <v>66.8</v>
+        <v>64.3</v>
       </c>
       <c r="M28" t="s">
         <v>131</v>
@@ -2466,123 +2516,123 @@
       <c r="N28" t="s">
         <v>131</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.57692307692307698</v>
+      <c r="O28">
+        <v>0.8</v>
       </c>
       <c r="P28">
         <v>15</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="S28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
         <v>131</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="J29">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="K29">
-        <v>70.8</v>
+        <v>63.86</v>
       </c>
       <c r="L29">
-        <v>71.900000000000006</v>
+        <v>64.16</v>
       </c>
       <c r="M29">
-        <v>32.799999999999997</v>
+        <v>26.45</v>
       </c>
       <c r="N29">
-        <v>37.1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
+        <v>26.82</v>
+      </c>
+      <c r="O29">
+        <v>0.89285714285714302</v>
       </c>
       <c r="P29">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="S29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>131</v>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>131</v>
       </c>
-      <c r="G30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" t="s">
-        <v>131</v>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>22</v>
-      </c>
-      <c r="J30">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
       </c>
       <c r="K30">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="L30">
-        <v>67.599999999999994</v>
+        <v>58</v>
+      </c>
+      <c r="L30" t="s">
+        <v>131</v>
       </c>
       <c r="M30" t="s">
         <v>131</v>
@@ -2590,40 +2640,40 @@
       <c r="N30" t="s">
         <v>131</v>
       </c>
-      <c r="O30" s="1">
-        <v>0.32142857142857101</v>
+      <c r="O30">
+        <v>0.68181818181818199</v>
       </c>
       <c r="P30">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T30">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>131</v>
@@ -2631,58 +2681,58 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
-        <v>131</v>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>16</v>
       </c>
       <c r="K31">
-        <v>63.52</v>
-      </c>
-      <c r="L31" t="s">
-        <v>131</v>
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L31">
+        <v>66.099999999999994</v>
       </c>
       <c r="M31">
-        <v>45</v>
-      </c>
-      <c r="N31" t="s">
-        <v>131</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
+        <v>22.8</v>
+      </c>
+      <c r="N31">
+        <v>22.6</v>
+      </c>
+      <c r="O31">
+        <v>0.45454545454545497</v>
       </c>
       <c r="P31">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="S31">
         <v>7</v>
       </c>
       <c r="T31">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>131</v>
@@ -2691,51 +2741,51 @@
         <v>131</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
         <v>131</v>
       </c>
       <c r="I32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
         <v>131</v>
       </c>
       <c r="K32">
-        <v>66.900000000000006</v>
+        <v>68.7</v>
       </c>
       <c r="L32" t="s">
         <v>131</v>
       </c>
-      <c r="M32" t="s">
-        <v>131</v>
+      <c r="M32">
+        <v>23.7</v>
       </c>
       <c r="N32" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="1">
-        <v>0.66666666666666696</v>
+      <c r="O32">
+        <v>0.46153846153846201</v>
       </c>
       <c r="P32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="S32">
         <v>7</v>
       </c>
       <c r="T32">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s">
         <v>61</v>
       </c>
-      <c r="U32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
@@ -2744,10 +2794,10 @@
         <v>13</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>131</v>
@@ -2755,58 +2805,58 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>131</v>
       </c>
       <c r="I33">
-        <v>16</v>
-      </c>
-      <c r="J33">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
       </c>
       <c r="K33">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="L33">
-        <v>66.099999999999994</v>
+        <v>64</v>
+      </c>
+      <c r="L33" t="s">
+        <v>131</v>
       </c>
       <c r="M33">
-        <v>22.8</v>
-      </c>
-      <c r="N33">
-        <v>22.6</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.53571428571428603</v>
+        <v>31.5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33">
+        <v>0.96428571428571397</v>
       </c>
       <c r="P33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q33" t="s">
         <v>62</v>
       </c>
       <c r="S33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>131</v>
@@ -2815,60 +2865,60 @@
         <v>131</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
         <v>131</v>
       </c>
       <c r="I34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
         <v>131</v>
       </c>
       <c r="K34">
-        <v>68.7</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="L34" t="s">
         <v>131</v>
       </c>
       <c r="M34">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="N34" t="s">
         <v>131</v>
       </c>
-      <c r="O34" s="1">
-        <v>0.54545454545454497</v>
+      <c r="O34">
+        <v>0.8</v>
       </c>
       <c r="P34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q34" t="s">
         <v>62</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T34">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>131</v>
@@ -2883,119 +2933,119 @@
         <v>131</v>
       </c>
       <c r="I35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
         <v>131</v>
       </c>
       <c r="K35">
-        <v>64</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="L35" t="s">
         <v>131</v>
       </c>
       <c r="M35">
-        <v>31.5</v>
+        <v>29.3</v>
       </c>
       <c r="N35" t="s">
         <v>131</v>
       </c>
-      <c r="O35" s="1">
-        <v>0.8</v>
+      <c r="O35">
+        <v>0.45</v>
       </c>
       <c r="P35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q35" t="s">
         <v>62</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T35">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36">
+        <v>106</v>
+      </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36">
         <v>65</v>
       </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36">
-        <v>65.599999999999994</v>
-      </c>
       <c r="L36" t="s">
         <v>131</v>
       </c>
       <c r="M36">
-        <v>24.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="N36" t="s">
         <v>131</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36">
         <v>0.53571428571428603</v>
       </c>
       <c r="P36">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="s">
         <v>62</v>
       </c>
       <c r="S36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T36">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
       </c>
       <c r="F37" t="s">
         <v>131</v>
@@ -3003,29 +3053,29 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
-        <v>131</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
-      <c r="J37" t="s">
-        <v>131</v>
+      <c r="J37">
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="L37" t="s">
-        <v>131</v>
+        <v>71</v>
+      </c>
+      <c r="L37">
+        <v>70</v>
       </c>
       <c r="M37">
-        <v>29.3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>131</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.95</v>
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <v>0.71428571428571397</v>
       </c>
       <c r="P37">
         <v>10</v>
@@ -3034,30 +3084,30 @@
         <v>62</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T37">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>71</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
       </c>
       <c r="F38" t="s">
         <v>131</v>
@@ -3065,300 +3115,300 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>131</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>106</v>
-      </c>
-      <c r="J38" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>65</v>
-      </c>
-      <c r="L38" t="s">
-        <v>131</v>
+        <v>66.5</v>
+      </c>
+      <c r="L38">
+        <v>66.5</v>
       </c>
       <c r="M38">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="N38" t="s">
-        <v>131</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.45454545454545497</v>
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>23</v>
+      </c>
+      <c r="O38">
+        <v>0.66666666666666696</v>
       </c>
       <c r="P38">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Q38" t="s">
         <v>62</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T38">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="U38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>131</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>131</v>
       </c>
       <c r="K39">
-        <v>71</v>
-      </c>
-      <c r="L39">
-        <v>70</v>
+        <v>60.1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>131</v>
       </c>
       <c r="M39">
-        <v>30</v>
-      </c>
-      <c r="N39">
+        <v>25.8</v>
+      </c>
+      <c r="N39" t="s">
+        <v>131</v>
+      </c>
+      <c r="O39">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="P39">
         <v>32</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.46153846153846201</v>
-      </c>
-      <c r="P39">
-        <v>10</v>
       </c>
       <c r="Q39" t="s">
         <v>62</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="U39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
       </c>
       <c r="F40" t="s">
         <v>131</v>
       </c>
       <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>131</v>
       </c>
       <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>66.5</v>
-      </c>
-      <c r="L40">
-        <v>66.5</v>
-      </c>
-      <c r="M40">
-        <v>23</v>
-      </c>
-      <c r="N40">
-        <v>23</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0.96428571428571397</v>
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" t="s">
+        <v>131</v>
+      </c>
+      <c r="O40">
+        <v>0.57142857142857095</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="Q40" t="s">
         <v>62</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T40">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>131</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
       </c>
       <c r="K41">
-        <v>60.1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>131</v>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="L41">
+        <v>70.099999999999994</v>
       </c>
       <c r="M41">
-        <v>25.8</v>
-      </c>
-      <c r="N41" t="s">
-        <v>131</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0.8</v>
+        <v>24.2</v>
+      </c>
+      <c r="N41">
+        <v>24.2</v>
+      </c>
+      <c r="O41">
+        <v>0.66666666666666696</v>
       </c>
       <c r="P41">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="s">
         <v>62</v>
       </c>
       <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42">
         <v>6</v>
       </c>
-      <c r="T41">
-        <v>34</v>
-      </c>
-      <c r="U41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>131</v>
-      </c>
       <c r="I42">
-        <v>86</v>
-      </c>
-      <c r="J42" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" t="s">
-        <v>131</v>
-      </c>
-      <c r="L42" t="s">
-        <v>131</v>
-      </c>
-      <c r="M42" t="s">
-        <v>131</v>
-      </c>
-      <c r="N42" t="s">
-        <v>131</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0.45</v>
+        <v>61</v>
+      </c>
+      <c r="J42">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>63.4</v>
+      </c>
+      <c r="L42">
+        <v>64.8</v>
+      </c>
+      <c r="M42">
+        <v>28</v>
+      </c>
+      <c r="N42">
+        <v>29.1</v>
+      </c>
+      <c r="O42">
+        <v>0.96153846153846201</v>
       </c>
       <c r="P42">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="Q42" t="s">
         <v>62</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T42">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="U42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
@@ -3370,113 +3420,113 @@
         <v>131</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>131</v>
       </c>
       <c r="I43">
-        <v>10</v>
-      </c>
-      <c r="J43">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>131</v>
       </c>
       <c r="K43">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="L43">
-        <v>70.099999999999994</v>
+        <v>63</v>
+      </c>
+      <c r="L43" t="s">
+        <v>131</v>
       </c>
       <c r="M43">
-        <v>24.2</v>
-      </c>
-      <c r="N43">
-        <v>24.2</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.82142857142857095</v>
+        <v>28.29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>131</v>
+      </c>
+      <c r="O43">
+        <v>0.46153846153846201</v>
       </c>
       <c r="P43">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q43" t="s">
         <v>62</v>
       </c>
       <c r="S43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="U43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
         <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>45</v>
-      </c>
-      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44">
+        <v>61.4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>131</v>
+      </c>
+      <c r="M44" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44" t="s">
+        <v>131</v>
+      </c>
+      <c r="O44">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="P44">
         <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44">
-        <v>9</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <v>61</v>
-      </c>
-      <c r="J44">
-        <v>54</v>
-      </c>
-      <c r="K44">
-        <v>63.4</v>
-      </c>
-      <c r="L44">
-        <v>64.8</v>
-      </c>
-      <c r="M44">
-        <v>28</v>
-      </c>
-      <c r="N44">
-        <v>29.1</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="P44">
-        <v>108</v>
       </c>
       <c r="Q44" t="s">
         <v>62</v>
       </c>
       <c r="S44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T44">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="U44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
@@ -3484,8 +3534,8 @@
       <c r="C45" t="s">
         <v>13</v>
       </c>
-      <c r="D45" t="s">
-        <v>131</v>
+      <c r="D45">
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>131</v>
@@ -3494,13 +3544,13 @@
         <v>131</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
         <v>131</v>
       </c>
       <c r="I45">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s">
         <v>131</v>
@@ -3511,34 +3561,34 @@
       <c r="L45" t="s">
         <v>131</v>
       </c>
-      <c r="M45">
-        <v>28.29</v>
+      <c r="M45" t="s">
+        <v>131</v>
       </c>
       <c r="N45" t="s">
         <v>131</v>
       </c>
-      <c r="O45" s="1">
-        <v>0.66666666666666696</v>
+      <c r="O45">
+        <v>0.96428571428571397</v>
       </c>
       <c r="P45">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Q45" t="s">
         <v>62</v>
       </c>
       <c r="S45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T45">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
@@ -3546,8 +3596,8 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
-      <c r="D46">
-        <v>7</v>
+      <c r="D46" t="s">
+        <v>131</v>
       </c>
       <c r="E46" t="s">
         <v>131</v>
@@ -3556,19 +3606,19 @@
         <v>131</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
         <v>131</v>
       </c>
       <c r="I46">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="J46" t="s">
         <v>131</v>
       </c>
       <c r="K46">
-        <v>61.4</v>
+        <v>63.1</v>
       </c>
       <c r="L46" t="s">
         <v>131</v>
@@ -3579,152 +3629,156 @@
       <c r="N46" t="s">
         <v>131</v>
       </c>
-      <c r="O46" s="1">
-        <v>0.83333333333333304</v>
+      <c r="O46">
+        <v>0.63636363636363602</v>
       </c>
       <c r="P46">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q46" t="s">
         <v>62</v>
       </c>
       <c r="S46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T46">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
+        <f>ROUND((0.3*I47)+(0.233*I47)+(0.161*I47)+(0.111*I47)+(0.106*I47),0)</f>
+        <v>164</v>
+      </c>
+      <c r="E47">
+        <f>ROUND((0.087*J47)+(0.202*J47)+(0.12*J47)+(0.044*J47)+(0.071*J47),0)</f>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>131</v>
       </c>
       <c r="G47">
-        <v>10</v>
-      </c>
-      <c r="H47" t="s">
-        <v>131</v>
+        <f>0.178*I47</f>
+        <v>32.04</v>
+      </c>
+      <c r="H47">
+        <f>0.361*J47</f>
+        <v>66.063000000000002</v>
       </c>
       <c r="I47">
-        <v>90</v>
-      </c>
-      <c r="J47" t="s">
-        <v>131</v>
+        <v>180</v>
+      </c>
+      <c r="J47">
+        <v>183</v>
       </c>
       <c r="K47">
-        <v>63</v>
-      </c>
-      <c r="L47" t="s">
-        <v>131</v>
-      </c>
-      <c r="M47" t="s">
-        <v>131</v>
-      </c>
-      <c r="N47" t="s">
-        <v>131</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0.88888888888888895</v>
+        <v>63.4</v>
+      </c>
+      <c r="L47">
+        <v>64.7</v>
+      </c>
+      <c r="M47">
+        <v>27.5</v>
+      </c>
+      <c r="N47">
+        <v>29.8</v>
+      </c>
+      <c r="O47">
+        <v>0.42857142857142899</v>
       </c>
       <c r="P47">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="Q47" t="s">
         <v>62</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>66</v>
+      </c>
+      <c r="L48">
         <v>70</v>
       </c>
-      <c r="U47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48">
-        <v>113</v>
-      </c>
-      <c r="J48" t="s">
-        <v>131</v>
-      </c>
-      <c r="K48">
-        <v>63.1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M48" t="s">
-        <v>131</v>
-      </c>
-      <c r="N48" t="s">
-        <v>131</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.66666666666666696</v>
+      <c r="M48">
+        <v>35</v>
+      </c>
+      <c r="N48">
+        <v>32</v>
+      </c>
+      <c r="O48">
+        <v>0.5</v>
       </c>
       <c r="P48">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="Q48" t="s">
         <v>62</v>
       </c>
       <c r="S48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T48">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="U48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
@@ -3733,60 +3787,60 @@
         <v>27</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
         <v>131</v>
       </c>
       <c r="G49">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="J49">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="K49">
-        <v>63.4</v>
+        <v>66.5</v>
       </c>
       <c r="L49">
-        <v>64.7</v>
+        <v>66.5</v>
       </c>
       <c r="M49">
-        <v>27.5</v>
+        <v>23</v>
       </c>
       <c r="N49">
-        <v>29.8</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0.96153846153846201</v>
+        <v>23</v>
+      </c>
+      <c r="O49">
+        <v>0.64285714285714302</v>
       </c>
       <c r="P49">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="Q49" t="s">
         <v>62</v>
       </c>
       <c r="S49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
@@ -3795,10 +3849,10 @@
         <v>27</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
         <v>131</v>
@@ -3807,172 +3861,172 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J50">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K50">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L50">
-        <v>70</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="N50">
-        <v>32</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.46153846153846201</v>
+        <v>32.1</v>
+      </c>
+      <c r="O50">
+        <v>0.94444444444444398</v>
       </c>
       <c r="P50">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="Q50" t="s">
         <v>62</v>
       </c>
       <c r="S50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T50">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
         <v>83</v>
       </c>
       <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
         <v>27</v>
       </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
+      <c r="E51" t="s">
+        <v>131</v>
       </c>
       <c r="F51" t="s">
         <v>131</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>131</v>
       </c>
       <c r="I51">
-        <v>10</v>
-      </c>
-      <c r="J51">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="J51" t="s">
+        <v>131</v>
       </c>
       <c r="K51">
-        <v>66.5</v>
-      </c>
-      <c r="L51">
-        <v>66.5</v>
-      </c>
-      <c r="M51">
-        <v>23</v>
-      </c>
-      <c r="N51">
-        <v>23</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.96428571428571397</v>
+        <v>63.2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" t="s">
+        <v>131</v>
+      </c>
+      <c r="N51" t="s">
+        <v>131</v>
+      </c>
+      <c r="O51">
+        <v>0.94444444444444398</v>
       </c>
       <c r="P51">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="Q51" t="s">
         <v>62</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T51">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="U51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>41</v>
-      </c>
-      <c r="E52">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
       </c>
       <c r="F52" t="s">
         <v>131</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>131</v>
       </c>
       <c r="I52">
-        <v>44</v>
-      </c>
-      <c r="J52">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>131</v>
       </c>
       <c r="K52">
-        <v>62</v>
-      </c>
-      <c r="L52">
-        <v>65.400000000000006</v>
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L52" t="s">
+        <v>131</v>
       </c>
       <c r="M52">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="N52">
-        <v>32.1</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.96428571428571397</v>
+        <v>43</v>
+      </c>
+      <c r="N52" t="s">
+        <v>131</v>
+      </c>
+      <c r="O52">
+        <v>0.94444444444444398</v>
       </c>
       <c r="P52">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q52" t="s">
         <v>62</v>
       </c>
       <c r="S52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T52">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
         <v>83</v>
@@ -3981,7 +4035,7 @@
         <v>13</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>131</v>
@@ -3990,19 +4044,19 @@
         <v>131</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
         <v>131</v>
       </c>
       <c r="I53">
-        <v>98</v>
+        <v>657</v>
       </c>
       <c r="J53" t="s">
         <v>131</v>
       </c>
       <c r="K53">
-        <v>63.2</v>
+        <v>68</v>
       </c>
       <c r="L53" t="s">
         <v>131</v>
@@ -4013,152 +4067,154 @@
       <c r="N53" t="s">
         <v>131</v>
       </c>
-      <c r="O53" s="1">
-        <v>0.63636363636363602</v>
+      <c r="O53">
+        <v>0.90909090909090895</v>
       </c>
       <c r="P53">
-        <v>98</v>
+        <v>627</v>
       </c>
       <c r="Q53" t="s">
         <v>62</v>
       </c>
       <c r="S53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T53">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="U53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>131</v>
+        <f>ROUND(41*0.854,0)</f>
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <f>ROUND(22*0.684,0)</f>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
         <v>131</v>
       </c>
       <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54" t="s">
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>47</v>
-      </c>
-      <c r="J54" t="s">
-        <v>131</v>
+        <v>41</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
       </c>
       <c r="K54">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="L54" t="s">
-        <v>131</v>
-      </c>
-      <c r="M54">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="L54">
+        <v>57</v>
+      </c>
+      <c r="M54" t="s">
+        <v>131</v>
       </c>
       <c r="N54" t="s">
         <v>131</v>
       </c>
-      <c r="O54" s="1">
-        <v>0.42857142857142899</v>
+      <c r="O54">
+        <v>0.90909090909090895</v>
       </c>
       <c r="P54">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q54" t="s">
         <v>62</v>
       </c>
       <c r="S54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T54">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="U54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>111</v>
+      </c>
+      <c r="E55">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55">
+        <v>27</v>
+      </c>
+      <c r="H55">
         <v>13</v>
       </c>
-      <c r="D55">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" t="s">
-        <v>131</v>
-      </c>
-      <c r="G55">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s">
-        <v>131</v>
-      </c>
       <c r="I55">
-        <v>657</v>
-      </c>
-      <c r="J55" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="J55">
+        <v>125</v>
       </c>
       <c r="K55">
-        <v>68</v>
-      </c>
-      <c r="L55" t="s">
-        <v>131</v>
-      </c>
-      <c r="M55" t="s">
-        <v>131</v>
-      </c>
-      <c r="N55" t="s">
-        <v>131</v>
-      </c>
-      <c r="O55" s="1">
-        <v>0.5</v>
+        <v>62</v>
+      </c>
+      <c r="L55">
+        <v>64</v>
+      </c>
+      <c r="M55">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N55">
+        <v>17.7</v>
+      </c>
+      <c r="O55">
+        <v>0.77272727272727304</v>
       </c>
       <c r="P55">
-        <v>627</v>
+        <v>109</v>
       </c>
       <c r="Q55" t="s">
         <v>62</v>
       </c>
       <c r="S55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T55">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="U55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -4166,63 +4222,61 @@
       <c r="C56" t="s">
         <v>27</v>
       </c>
-      <c r="D56">
-        <f>41*0.854</f>
-        <v>35.013999999999996</v>
-      </c>
-      <c r="E56">
-        <f>22*0.684</f>
-        <v>15.048000000000002</v>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
       </c>
       <c r="F56" t="s">
         <v>131</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I56">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="J56">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="K56">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L56">
-        <v>57</v>
-      </c>
-      <c r="M56" t="s">
-        <v>131</v>
-      </c>
-      <c r="N56" t="s">
-        <v>131</v>
-      </c>
-      <c r="O56" s="1">
-        <v>0.64285714285714302</v>
+        <v>62.7</v>
+      </c>
+      <c r="M56">
+        <v>23.3</v>
+      </c>
+      <c r="N56">
+        <v>23.1</v>
+      </c>
+      <c r="O56">
+        <v>0.90909090909090895</v>
       </c>
       <c r="P56">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="Q56" t="s">
         <v>62</v>
       </c>
       <c r="S56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T56">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="U56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
         <v>90</v>
@@ -4231,264 +4285,265 @@
         <v>27</v>
       </c>
       <c r="D57">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="E57">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
         <v>131</v>
       </c>
       <c r="G57">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I57">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="J57">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L57">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M57">
-        <v>17.899999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="N57">
-        <v>17.7</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0.94444444444444398</v>
+        <v>21.7</v>
+      </c>
+      <c r="O57">
+        <v>0.39285714285714302</v>
       </c>
       <c r="P57">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="Q57" t="s">
         <v>62</v>
       </c>
       <c r="S57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T57">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" t="s">
-        <v>131</v>
+      <c r="D58">
+        <f>53+83</f>
+        <v>136</v>
+      </c>
+      <c r="E58">
+        <f>19+46</f>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
         <v>131</v>
       </c>
-      <c r="G58">
-        <v>66</v>
-      </c>
-      <c r="H58">
-        <v>55</v>
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" t="s">
+        <v>131</v>
       </c>
       <c r="I58">
-        <v>168</v>
+        <f>69+103</f>
+        <v>172</v>
       </c>
       <c r="J58">
-        <v>167</v>
+        <f>31+59</f>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>63</v>
+        <v>65.87</v>
       </c>
       <c r="L58">
-        <v>62.7</v>
+        <v>66.5</v>
       </c>
       <c r="M58">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
       <c r="N58">
-        <v>23.1</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0.94444444444444398</v>
+        <v>21.03</v>
+      </c>
+      <c r="O58">
+        <v>0.32142857142857101</v>
       </c>
       <c r="P58">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="Q58" t="s">
         <v>62</v>
       </c>
       <c r="S58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T58">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59">
-        <v>179</v>
+        <f>155+76</f>
+        <v>231</v>
       </c>
       <c r="E59">
-        <v>89</v>
+        <f>24+54</f>
+        <v>78</v>
       </c>
       <c r="F59" t="s">
         <v>131</v>
       </c>
-      <c r="G59">
-        <v>48</v>
-      </c>
-      <c r="H59">
-        <v>29</v>
+      <c r="G59" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
       </c>
       <c r="I59">
-        <v>179</v>
+        <f>87+168</f>
+        <v>255</v>
       </c>
       <c r="J59">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>63</v>
+        <v>65.53</v>
       </c>
       <c r="L59">
-        <v>63</v>
+        <v>66.12</v>
       </c>
       <c r="M59">
-        <v>21.5</v>
+        <v>26.61</v>
       </c>
       <c r="N59">
-        <v>21.7</v>
-      </c>
-      <c r="O59" s="1">
-        <v>0.94444444444444398</v>
+        <v>25.94</v>
+      </c>
+      <c r="O59">
+        <v>0.57692307692307698</v>
       </c>
       <c r="P59">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="Q59" t="s">
         <v>62</v>
       </c>
       <c r="S59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T59">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <f>53+83</f>
-        <v>136</v>
-      </c>
-      <c r="E60">
-        <f>19+46</f>
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
       </c>
       <c r="F60" t="s">
         <v>131</v>
       </c>
-      <c r="G60" t="s">
-        <v>131</v>
+      <c r="G60">
+        <v>23</v>
       </c>
       <c r="H60" t="s">
         <v>131</v>
       </c>
       <c r="I60">
-        <f>69+103</f>
-        <v>172</v>
-      </c>
-      <c r="J60">
-        <f>31+59</f>
-        <v>90</v>
+        <v>657</v>
+      </c>
+      <c r="J60" t="s">
+        <v>131</v>
       </c>
       <c r="K60">
-        <v>65.87</v>
-      </c>
-      <c r="L60">
-        <v>66.5</v>
-      </c>
-      <c r="M60">
-        <v>20.3</v>
-      </c>
-      <c r="N60">
-        <v>21.03</v>
-      </c>
-      <c r="O60" s="1">
-        <v>0.90909090909090895</v>
+        <v>67.7</v>
+      </c>
+      <c r="L60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
+      <c r="N60" t="s">
+        <v>131</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
       </c>
       <c r="P60">
-        <v>87</v>
+        <v>643</v>
       </c>
       <c r="Q60" t="s">
         <v>62</v>
       </c>
       <c r="S60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T60">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="U60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61">
-        <f>155+76</f>
-        <v>231</v>
-      </c>
-      <c r="E61">
-        <f>24+54</f>
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
       </c>
       <c r="F61" t="s">
         <v>131</v>
@@ -4499,56 +4554,55 @@
       <c r="H61" t="s">
         <v>131</v>
       </c>
-      <c r="I61">
-        <f>87+168</f>
-        <v>255</v>
-      </c>
-      <c r="J61">
-        <v>90</v>
-      </c>
-      <c r="K61">
-        <v>65.53</v>
-      </c>
-      <c r="L61">
-        <v>66.12</v>
-      </c>
-      <c r="M61">
-        <v>26.61</v>
-      </c>
-      <c r="N61">
-        <v>25.94</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0.90909090909090895</v>
+      <c r="I61" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" t="s">
+        <v>131</v>
+      </c>
+      <c r="L61" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61" t="s">
+        <v>131</v>
+      </c>
+      <c r="N61" t="s">
+        <v>131</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
       </c>
       <c r="P61">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="S61">
         <v>6</v>
       </c>
       <c r="T61">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="U61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
         <v>131</v>
@@ -4557,19 +4611,19 @@
         <v>131</v>
       </c>
       <c r="G62">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>131</v>
       </c>
       <c r="I62">
-        <v>657</v>
+        <v>26</v>
       </c>
       <c r="J62" t="s">
         <v>131</v>
       </c>
       <c r="K62">
-        <v>67.7</v>
+        <v>71</v>
       </c>
       <c r="L62" t="s">
         <v>131</v>
@@ -4580,37 +4634,37 @@
       <c r="N62" t="s">
         <v>131</v>
       </c>
-      <c r="O62" s="1">
-        <v>0.77272727272727304</v>
+      <c r="O62">
+        <v>0.32142857142857101</v>
       </c>
       <c r="P62">
-        <v>643</v>
+        <v>26</v>
       </c>
       <c r="Q62" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="S62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T62">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="U62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>131</v>
@@ -4619,34 +4673,34 @@
         <v>131</v>
       </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63">
+        <v>338</v>
+      </c>
+      <c r="J63" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="L63" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" t="s">
+        <v>131</v>
+      </c>
+      <c r="N63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O63">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63">
-        <v>26</v>
-      </c>
-      <c r="J63" t="s">
-        <v>131</v>
-      </c>
-      <c r="K63">
-        <v>71</v>
-      </c>
-      <c r="L63" t="s">
-        <v>131</v>
-      </c>
-      <c r="M63" t="s">
-        <v>131</v>
-      </c>
-      <c r="N63" t="s">
-        <v>131</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0.90909090909090895</v>
-      </c>
       <c r="P63">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q63" t="s">
         <v>98</v>
@@ -4655,122 +4709,122 @@
         <v>5</v>
       </c>
       <c r="T63">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="U63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" t="s">
-        <v>131</v>
-      </c>
-      <c r="G64">
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>22</v>
+      </c>
+      <c r="J64">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="L64">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="M64" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="N64" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="O64">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="P64">
+        <v>38</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>101</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>43</v>
+      </c>
+      <c r="U64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64">
-        <v>338</v>
-      </c>
-      <c r="J64" t="s">
-        <v>131</v>
-      </c>
-      <c r="K64">
-        <v>69.650000000000006</v>
-      </c>
-      <c r="L64" t="s">
-        <v>131</v>
-      </c>
-      <c r="M64" t="s">
-        <v>131</v>
-      </c>
-      <c r="N64" t="s">
-        <v>131</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0.39285714285714302</v>
-      </c>
-      <c r="P64">
-        <v>31</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>98</v>
-      </c>
-      <c r="S64">
-        <v>5</v>
-      </c>
-      <c r="T64">
-        <v>53</v>
-      </c>
-      <c r="U64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>17</v>
       </c>
-      <c r="F65" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65">
-        <v>22</v>
-      </c>
       <c r="J65">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K65">
-        <v>67.599999999999994</v>
+        <v>66.8</v>
       </c>
       <c r="L65">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="M65" s="1">
-        <v>24.9</v>
-      </c>
-      <c r="N65" s="1">
-        <v>24.9</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0.32142857142857101</v>
+        <v>66.8</v>
+      </c>
+      <c r="M65" t="s">
+        <v>131</v>
+      </c>
+      <c r="N65" t="s">
+        <v>131</v>
+      </c>
+      <c r="O65">
+        <v>0.54545454545454497</v>
       </c>
       <c r="P65">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q65" t="s">
         <v>101</v>
@@ -4779,60 +4833,60 @@
         <v>4</v>
       </c>
       <c r="T65">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
       </c>
       <c r="F66" t="s">
         <v>131</v>
       </c>
       <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>20</v>
-      </c>
-      <c r="J66" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="J66">
+        <v>30</v>
       </c>
       <c r="K66">
-        <v>57.9</v>
-      </c>
-      <c r="L66" t="s">
-        <v>131</v>
+        <v>70.8</v>
+      </c>
+      <c r="L66">
+        <v>71.900000000000006</v>
       </c>
       <c r="M66">
-        <v>28.5</v>
-      </c>
-      <c r="N66" t="s">
-        <v>131</v>
-      </c>
-      <c r="O66" s="1">
-        <v>0.39285714285714302</v>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="N66">
+        <v>37.1</v>
+      </c>
+      <c r="O66">
+        <v>0.8</v>
       </c>
       <c r="P66">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q66" t="s">
         <v>101</v>
@@ -4841,86 +4895,86 @@
         <v>4</v>
       </c>
       <c r="T66">
+        <v>17</v>
+      </c>
+      <c r="U66" t="s">
         <v>55</v>
       </c>
-      <c r="U66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67">
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>22</v>
+      </c>
+      <c r="K67">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="L67">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="M67" t="s">
+        <v>131</v>
+      </c>
+      <c r="N67" t="s">
+        <v>131</v>
+      </c>
+      <c r="O67">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="P67">
+        <v>19</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>101</v>
+      </c>
+      <c r="S67">
         <v>4</v>
       </c>
-      <c r="E67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67">
-        <v>10</v>
-      </c>
-      <c r="J67" t="s">
-        <v>131</v>
-      </c>
-      <c r="K67">
-        <v>62.2</v>
-      </c>
-      <c r="L67" t="s">
-        <v>131</v>
-      </c>
-      <c r="M67" t="s">
-        <v>131</v>
-      </c>
-      <c r="N67" t="s">
-        <v>131</v>
-      </c>
-      <c r="O67" s="1">
-        <v>0.46153846153846201</v>
-      </c>
-      <c r="P67">
-        <v>10</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>105</v>
-      </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
       <c r="T67">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="U67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
-      <c r="D68" t="s">
-        <v>131</v>
+      <c r="D68">
+        <v>11</v>
       </c>
       <c r="E68" t="s">
         <v>131</v>
@@ -4928,61 +4982,61 @@
       <c r="F68" t="s">
         <v>131</v>
       </c>
-      <c r="G68" t="s">
-        <v>131</v>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>131</v>
       </c>
       <c r="I68">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
         <v>131</v>
       </c>
       <c r="K68">
-        <v>62</v>
+        <v>63.52</v>
       </c>
       <c r="L68" t="s">
         <v>131</v>
       </c>
-      <c r="M68" t="s">
-        <v>131</v>
+      <c r="M68">
+        <v>45</v>
       </c>
       <c r="N68" t="s">
         <v>131</v>
       </c>
-      <c r="O68" s="1">
-        <v>0.65</v>
+      <c r="O68">
+        <v>0.53571428571428603</v>
       </c>
       <c r="P68">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q68" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T68">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="U68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
         <v>131</v>
@@ -4997,13 +5051,13 @@
         <v>131</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J69" t="s">
         <v>131</v>
       </c>
       <c r="K69">
-        <v>62.2</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="L69" t="s">
         <v>131</v>
@@ -5014,37 +5068,37 @@
       <c r="N69" t="s">
         <v>131</v>
       </c>
-      <c r="O69" s="1">
-        <v>0.46153846153846201</v>
+      <c r="O69">
+        <v>0.95</v>
       </c>
       <c r="P69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q69" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T69">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>131</v>
@@ -5059,54 +5113,54 @@
         <v>131</v>
       </c>
       <c r="I70">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
         <v>131</v>
       </c>
       <c r="K70">
-        <v>65.099999999999994</v>
+        <v>57.9</v>
       </c>
       <c r="L70" t="s">
         <v>131</v>
       </c>
       <c r="M70">
-        <v>52.3</v>
+        <v>28.5</v>
       </c>
       <c r="N70" t="s">
         <v>131</v>
       </c>
-      <c r="O70" s="1">
-        <v>0.85</v>
+      <c r="O70">
+        <v>0.39285714285714302</v>
       </c>
       <c r="P70">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q70" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T70">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="U70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
         <v>131</v>
@@ -5114,20 +5168,20 @@
       <c r="F71" t="s">
         <v>131</v>
       </c>
-      <c r="G71" t="s">
-        <v>131</v>
+      <c r="G71">
+        <v>0</v>
       </c>
       <c r="H71" t="s">
         <v>131</v>
       </c>
       <c r="I71">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J71" t="s">
         <v>131</v>
       </c>
       <c r="K71">
-        <v>69</v>
+        <v>62.2</v>
       </c>
       <c r="L71" t="s">
         <v>131</v>
@@ -5138,37 +5192,37 @@
       <c r="N71" t="s">
         <v>131</v>
       </c>
-      <c r="O71" s="1">
-        <v>0.54545454545454497</v>
+      <c r="O71">
+        <v>0.46153846153846201</v>
       </c>
       <c r="P71">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T71">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="U71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="D72">
-        <v>4</v>
+      <c r="D72" t="s">
+        <v>131</v>
       </c>
       <c r="E72" t="s">
         <v>131</v>
@@ -5183,13 +5237,13 @@
         <v>131</v>
       </c>
       <c r="I72">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s">
         <v>131</v>
       </c>
       <c r="K72">
-        <v>61.1</v>
+        <v>62</v>
       </c>
       <c r="L72" t="s">
         <v>131</v>
@@ -5200,37 +5254,37 @@
       <c r="N72" t="s">
         <v>131</v>
       </c>
-      <c r="O72" s="1">
-        <v>0.68181818181818199</v>
+      <c r="O72">
+        <v>0.65</v>
       </c>
       <c r="P72">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Q72" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
-      <c r="D73" t="s">
-        <v>131</v>
+      <c r="D73">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>131</v>
@@ -5238,52 +5292,52 @@
       <c r="F73" t="s">
         <v>131</v>
       </c>
-      <c r="G73" t="s">
-        <v>131</v>
+      <c r="G73">
+        <v>0</v>
       </c>
       <c r="H73" t="s">
         <v>131</v>
       </c>
       <c r="I73">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J73" t="s">
         <v>131</v>
       </c>
       <c r="K73">
-        <v>59</v>
+        <v>62.2</v>
       </c>
       <c r="L73" t="s">
         <v>131</v>
       </c>
-      <c r="M73">
-        <v>35.4</v>
+      <c r="M73" t="s">
+        <v>131</v>
       </c>
       <c r="N73" t="s">
         <v>131</v>
       </c>
-      <c r="O73" s="1">
-        <v>0.77272727272727304</v>
+      <c r="O73">
+        <v>0.46153846153846201</v>
       </c>
       <c r="P73">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Q73" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="U73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
         <v>114</v>
@@ -5291,8 +5345,8 @@
       <c r="C74" t="s">
         <v>13</v>
       </c>
-      <c r="D74" t="s">
-        <v>131</v>
+      <c r="D74">
+        <v>7</v>
       </c>
       <c r="E74" t="s">
         <v>131</v>
@@ -5306,29 +5360,29 @@
       <c r="H74" t="s">
         <v>131</v>
       </c>
-      <c r="I74" t="s">
-        <v>131</v>
+      <c r="I74">
+        <v>45</v>
       </c>
       <c r="J74" t="s">
         <v>131</v>
       </c>
       <c r="K74">
-        <v>63.61</v>
+        <v>69</v>
       </c>
       <c r="L74" t="s">
         <v>131</v>
       </c>
-      <c r="M74">
-        <v>27.9</v>
+      <c r="M74" t="s">
+        <v>131</v>
       </c>
       <c r="N74" t="s">
         <v>131</v>
       </c>
-      <c r="O74" s="1">
-        <v>0.57142857142857095</v>
+      <c r="O74">
+        <v>0.54545454545454497</v>
       </c>
       <c r="P74">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q74" t="s">
         <v>114</v>
@@ -5337,15 +5391,15 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="U74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
         <v>114</v>
@@ -5354,7 +5408,7 @@
         <v>13</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
         <v>131</v>
@@ -5362,35 +5416,35 @@
       <c r="F75" t="s">
         <v>131</v>
       </c>
-      <c r="G75">
-        <v>0</v>
+      <c r="G75" t="s">
+        <v>131</v>
       </c>
       <c r="H75" t="s">
         <v>131</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J75" t="s">
         <v>131</v>
       </c>
       <c r="K75">
-        <v>57.9</v>
+        <v>61.1</v>
       </c>
       <c r="L75" t="s">
         <v>131</v>
       </c>
-      <c r="M75">
-        <v>28.5</v>
+      <c r="M75" t="s">
+        <v>131</v>
       </c>
       <c r="N75" t="s">
         <v>131</v>
       </c>
-      <c r="O75" s="1">
-        <v>0.39285714285714302</v>
+      <c r="O75">
+        <v>0.68181818181818199</v>
       </c>
       <c r="P75">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q75" t="s">
         <v>114</v>
@@ -5399,15 +5453,15 @@
         <v>1</v>
       </c>
       <c r="T75">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="U75" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
         <v>114</v>
@@ -5430,29 +5484,29 @@
       <c r="H76" t="s">
         <v>131</v>
       </c>
-      <c r="I76" t="s">
-        <v>131</v>
+      <c r="I76">
+        <v>34</v>
       </c>
       <c r="J76" t="s">
         <v>131</v>
       </c>
       <c r="K76">
-        <v>66.63</v>
+        <v>59</v>
       </c>
       <c r="L76" t="s">
         <v>131</v>
       </c>
       <c r="M76">
-        <v>29.19</v>
+        <v>35.4</v>
       </c>
       <c r="N76" t="s">
         <v>131</v>
       </c>
-      <c r="O76" s="1">
-        <v>0.72727272727272696</v>
+      <c r="O76">
+        <v>0.77272727272727304</v>
       </c>
       <c r="P76">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Q76" t="s">
         <v>114</v>
@@ -5461,15 +5515,15 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="U76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
         <v>114</v>
@@ -5492,29 +5546,29 @@
       <c r="H77" t="s">
         <v>131</v>
       </c>
-      <c r="I77">
-        <v>76</v>
+      <c r="I77" t="s">
+        <v>131</v>
       </c>
       <c r="J77" t="s">
         <v>131</v>
       </c>
       <c r="K77">
-        <v>62</v>
+        <v>63.61</v>
       </c>
       <c r="L77" t="s">
         <v>131</v>
       </c>
       <c r="M77">
-        <v>44</v>
+        <v>27.9</v>
       </c>
       <c r="N77" t="s">
         <v>131</v>
       </c>
-      <c r="O77" s="1">
-        <v>0.71428571428571397</v>
+      <c r="O77">
+        <v>0.57142857142857095</v>
       </c>
       <c r="P77">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Q77" t="s">
         <v>114</v>
@@ -5529,9 +5583,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
         <v>114</v>
@@ -5540,7 +5594,7 @@
         <v>13</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
         <v>131</v>
@@ -5555,28 +5609,28 @@
         <v>131</v>
       </c>
       <c r="I78">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="J78" t="s">
         <v>131</v>
       </c>
       <c r="K78">
-        <v>69.650000000000006</v>
+        <v>57.9</v>
       </c>
       <c r="L78" t="s">
         <v>131</v>
       </c>
-      <c r="M78" t="s">
-        <v>131</v>
+      <c r="M78">
+        <v>28.5</v>
       </c>
       <c r="N78" t="s">
         <v>131</v>
       </c>
-      <c r="O78" s="1">
-        <v>0.29166666666666702</v>
+      <c r="O78">
+        <v>0.39285714285714302</v>
       </c>
       <c r="P78">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="Q78" t="s">
         <v>114</v>
@@ -5585,15 +5639,15 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="U78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
         <v>114</v>
@@ -5623,22 +5677,22 @@
         <v>131</v>
       </c>
       <c r="K79">
-        <v>60</v>
+        <v>66.63</v>
       </c>
       <c r="L79" t="s">
         <v>131</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>29.19</v>
       </c>
       <c r="N79" t="s">
         <v>131</v>
       </c>
-      <c r="O79" s="1">
-        <v>0.59090909090909105</v>
+      <c r="O79">
+        <v>0.72727272727272696</v>
       </c>
       <c r="P79">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q79" t="s">
         <v>114</v>
@@ -5647,15 +5701,15 @@
         <v>1</v>
       </c>
       <c r="T79">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
         <v>114</v>
@@ -5679,28 +5733,28 @@
         <v>131</v>
       </c>
       <c r="I80">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J80" t="s">
         <v>131</v>
       </c>
       <c r="K80">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L80" t="s">
         <v>131</v>
       </c>
       <c r="M80">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="N80" t="s">
         <v>131</v>
       </c>
-      <c r="O80" s="1">
-        <v>0.57142857142857095</v>
+      <c r="O80">
+        <v>0.71428571428571397</v>
       </c>
       <c r="P80">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q80" t="s">
         <v>114</v>
@@ -5709,9 +5763,195 @@
         <v>1</v>
       </c>
       <c r="T80">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="U80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81">
+        <v>338</v>
+      </c>
+      <c r="J81" t="s">
+        <v>131</v>
+      </c>
+      <c r="K81">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="L81" t="s">
+        <v>131</v>
+      </c>
+      <c r="M81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N81" t="s">
+        <v>131</v>
+      </c>
+      <c r="O81">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="P81">
+        <v>338</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>114</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>68</v>
+      </c>
+      <c r="U81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" t="s">
+        <v>131</v>
+      </c>
+      <c r="J82" t="s">
+        <v>131</v>
+      </c>
+      <c r="K82">
+        <v>60</v>
+      </c>
+      <c r="L82" t="s">
+        <v>131</v>
+      </c>
+      <c r="M82">
+        <v>23</v>
+      </c>
+      <c r="N82" t="s">
+        <v>131</v>
+      </c>
+      <c r="O82">
+        <v>0.59090909090909105</v>
+      </c>
+      <c r="P82">
+        <v>10</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>114</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>69</v>
+      </c>
+      <c r="U82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83">
+        <v>71</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+      <c r="K83">
+        <v>63</v>
+      </c>
+      <c r="L83" t="s">
+        <v>131</v>
+      </c>
+      <c r="M83">
+        <v>43.9</v>
+      </c>
+      <c r="N83" t="s">
+        <v>131</v>
+      </c>
+      <c r="O83">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P83">
+        <v>69</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>114</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s">
         <v>114</v>
       </c>
     </row>
